--- a/CAD/naca airfoils.xlsx
+++ b/CAD/naca airfoils.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus\emf\Mech2\dblais6\Desktop\Mech 532 CAD\Airfoil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MECH532\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8933321-8349-4CF9-93AC-720F96BA0A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4268C-784D-4E9B-8282-5E4F60947AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" xr2:uid="{EB129E29-9C87-4BDF-8167-8C5C29152DE1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" activeTab="1" xr2:uid="{EB129E29-9C87-4BDF-8167-8C5C29152DE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wing and Tailplane" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>m</t>
   </si>
@@ -50,18 +51,51 @@
   <si>
     <t>chord_tailplane</t>
   </si>
+  <si>
+    <t>NACA</t>
+  </si>
+  <si>
+    <t>chord length at top</t>
+  </si>
+  <si>
+    <t>chord length at bottom</t>
+  </si>
+  <si>
+    <t>Top part of the fin</t>
+  </si>
+  <si>
+    <t>Bottom part of the fin</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>For cutting plane</t>
+  </si>
+  <si>
+    <t>Cutting plane height in body</t>
+  </si>
+  <si>
+    <t>Offset of cutting plane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D548378-1CFF-4BFD-AD04-128A9345765E}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,4 +2141,1658 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2E3A9D-DA5B-4F82-946E-8F4FD58210EA}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>0.15</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1.58E-3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>$N$1*A9</f>
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <f>B9*$N$1</f>
+        <v>7.9000000000000009E-5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>$N$2*A9</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9">
+        <f>B9*$N$2</f>
+        <v>1.1060000000000002E-4</v>
+      </c>
+      <c r="Q9">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T9">
+        <f>O9+$N$5</f>
+        <v>1.395</v>
+      </c>
+      <c r="U9">
+        <v>1.1060000000000002E-4</v>
+      </c>
+      <c r="V9">
+        <f>$N$4</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="X9">
+        <f>1.33</f>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.95</v>
+      </c>
+      <c r="B10">
+        <v>1.008E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>$N$1*A10</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="L10">
+        <f>B10*$N$1</f>
+        <v>5.04E-4</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>$N$2*A10</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="P10">
+        <f>B10*$N$2</f>
+        <v>7.0560000000000013E-4</v>
+      </c>
+      <c r="Q10">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T43" si="0">O10+$N$5</f>
+        <v>1.3915</v>
+      </c>
+      <c r="U10">
+        <v>7.0560000000000013E-4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V43" si="1">$N$4</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>$N$1*A11</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L11">
+        <f>B11*$N$1</f>
+        <v>9.050000000000001E-4</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>$N$2*A11</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="P11">
+        <f>B11*$N$2</f>
+        <v>1.2670000000000003E-3</v>
+      </c>
+      <c r="Q11">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="U11">
+        <v>1.2670000000000003E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>3.279E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>$N$1*A12</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="L12">
+        <f>B12*$N$1</f>
+        <v>1.6395000000000001E-3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>$N$2*A12</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="P12">
+        <f>B12*$N$2</f>
+        <v>2.2953000000000001E-3</v>
+      </c>
+      <c r="Q12">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>1.381</v>
+      </c>
+      <c r="U12">
+        <v>2.2953000000000001E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.7</v>
+      </c>
+      <c r="B13">
+        <v>4.58E-2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>$N$1*A13</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="L13">
+        <f>B13*$N$1</f>
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>$N$2*A13</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P13">
+        <f>B13*$N$2</f>
+        <v>3.2060000000000005E-3</v>
+      </c>
+      <c r="Q13">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>1.3739999999999999</v>
+      </c>
+      <c r="U13">
+        <v>3.2060000000000005E-3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>5.704E-2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>$N$1*A14</f>
+        <v>0.03</v>
+      </c>
+      <c r="L14">
+        <f>B14*$N$1</f>
+        <v>2.8520000000000004E-3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>$N$2*A14</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P14">
+        <f>B14*$N$2</f>
+        <v>3.9928000000000003E-3</v>
+      </c>
+      <c r="Q14">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="U14">
+        <v>3.9928000000000003E-3</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <v>6.6170000000000007E-2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>$N$1*A15</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L15">
+        <f>B15*$N$1</f>
+        <v>3.3085000000000007E-3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>$N$2*A15</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P15">
+        <f>B15*$N$2</f>
+        <v>4.6319000000000013E-3</v>
+      </c>
+      <c r="Q15">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="U15">
+        <v>4.6319000000000013E-3</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.4</v>
+      </c>
+      <c r="B16">
+        <v>7.2539999999999993E-2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>$N$1*A16</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L16">
+        <f>B16*$N$1</f>
+        <v>3.627E-3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>$N$2*A16</f>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="P16">
+        <f>B16*$N$2</f>
+        <v>5.0778000000000004E-3</v>
+      </c>
+      <c r="Q16">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>1.353</v>
+      </c>
+      <c r="U16">
+        <v>5.0778000000000004E-3</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.3</v>
+      </c>
+      <c r="B17">
+        <v>7.5020000000000003E-2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>$N$1*A17</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L17">
+        <f>B17*$N$1</f>
+        <v>3.7510000000000004E-3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>$N$2*A17</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P17">
+        <f>B17*$N$2</f>
+        <v>5.2514000000000007E-3</v>
+      </c>
+      <c r="Q17">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>1.3459999999999999</v>
+      </c>
+      <c r="U17">
+        <v>5.2514000000000007E-3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.25</v>
+      </c>
+      <c r="B18">
+        <v>7.4270000000000003E-2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>$N$1*A18</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L18">
+        <f>B18*$N$1</f>
+        <v>3.7135000000000002E-3</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>$N$2*A18</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="P18">
+        <f>B18*$N$2</f>
+        <v>5.1989000000000011E-3</v>
+      </c>
+      <c r="Q18">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>1.3425</v>
+      </c>
+      <c r="U18">
+        <v>5.1989000000000011E-3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
+      <c r="B19">
+        <v>7.1720000000000006E-2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>$N$1*A19</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L19">
+        <f>B19*$N$1</f>
+        <v>3.5860000000000006E-3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>$N$2*A19</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="P19">
+        <f>B19*$N$2</f>
+        <v>5.0204000000000013E-3</v>
+      </c>
+      <c r="Q19">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>1.339</v>
+      </c>
+      <c r="U19">
+        <v>5.0204000000000013E-3</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <v>6.6820000000000004E-2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>$N$1*A20</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L20">
+        <f>B20*$N$1</f>
+        <v>3.3410000000000002E-3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>$N$2*A20</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="P20">
+        <f>B20*$N$2</f>
+        <v>4.6774000000000008E-3</v>
+      </c>
+      <c r="Q20">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>1.3354999999999999</v>
+      </c>
+      <c r="U20">
+        <v>4.6774000000000008E-3</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <v>5.8529999999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>$N$1*A21</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="L21">
+        <f>B21*$N$1</f>
+        <v>2.9265000000000003E-3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>$N$2*A21</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="P21">
+        <f>B21*$N$2</f>
+        <v>4.0971000000000002E-3</v>
+      </c>
+      <c r="Q21">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>1.3319999999999999</v>
+      </c>
+      <c r="U21">
+        <v>4.0971000000000002E-3</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B22">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>$N$1*A22</f>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="L22">
+        <f>B22*$N$1</f>
+        <v>2.6250000000000002E-3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>$N$2*A22</f>
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="P22">
+        <f>B22*$N$2</f>
+        <v>3.6750000000000003E-3</v>
+      </c>
+      <c r="Q22">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>1.3302499999999999</v>
+      </c>
+      <c r="U22">
+        <v>3.6750000000000003E-3</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.05</v>
+      </c>
+      <c r="B23">
+        <v>4.4429999999999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>$N$1*A23</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="L23">
+        <f>B23*$N$1</f>
+        <v>2.2215E-3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>$N$2*A23</f>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="P23">
+        <f>B23*$N$2</f>
+        <v>3.1101000000000002E-3</v>
+      </c>
+      <c r="Q23">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>1.3285</v>
+      </c>
+      <c r="U23">
+        <v>3.1101000000000002E-3</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B24">
+        <v>3.2680000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>$N$1*A24</f>
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="L24">
+        <f>B24*$N$1</f>
+        <v>1.634E-3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>$N$2*A24</f>
+        <v>1.7500000000000003E-3</v>
+      </c>
+      <c r="P24">
+        <f>B24*$N$2</f>
+        <v>2.2876000000000003E-3</v>
+      </c>
+      <c r="Q24">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>1.3267499999999999</v>
+      </c>
+      <c r="U24">
+        <v>2.2876000000000003E-3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="B25">
+        <v>2.367E-2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>$N$1*A25</f>
+        <v>6.2500000000000012E-4</v>
+      </c>
+      <c r="L25">
+        <f>B25*$N$1</f>
+        <v>1.1835000000000001E-3</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>$N$2*A25</f>
+        <v>8.7500000000000013E-4</v>
+      </c>
+      <c r="P25">
+        <f>B25*$N$2</f>
+        <v>1.6569000000000002E-3</v>
+      </c>
+      <c r="Q25">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>1.3258749999999999</v>
+      </c>
+      <c r="U25">
+        <v>1.6569000000000002E-3</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>$N$1*A26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>B26*$N$1</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>$N$2*A26</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>B26*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>1.325</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="B27">
+        <v>-2.367E-2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>$N$1*A27</f>
+        <v>6.2500000000000012E-4</v>
+      </c>
+      <c r="L27">
+        <f>B27*$N$1</f>
+        <v>-1.1835000000000001E-3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>$N$2*A27</f>
+        <v>8.7500000000000013E-4</v>
+      </c>
+      <c r="P27">
+        <f>B27*$N$2</f>
+        <v>-1.6569000000000002E-3</v>
+      </c>
+      <c r="Q27">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>1.3258749999999999</v>
+      </c>
+      <c r="U27">
+        <v>-1.6569000000000002E-3</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B28">
+        <v>-3.2680000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>$N$1*A28</f>
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="L28">
+        <f>B28*$N$1</f>
+        <v>-1.634E-3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>$N$2*A28</f>
+        <v>1.7500000000000003E-3</v>
+      </c>
+      <c r="P28">
+        <f>B28*$N$2</f>
+        <v>-2.2876000000000003E-3</v>
+      </c>
+      <c r="Q28">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>1.3267499999999999</v>
+      </c>
+      <c r="U28">
+        <v>-2.2876000000000003E-3</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.05</v>
+      </c>
+      <c r="B29">
+        <v>-4.4429999999999997E-2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>$N$1*A29</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="L29">
+        <f>B29*$N$1</f>
+        <v>-2.2215E-3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>$N$2*A29</f>
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="P29">
+        <f>B29*$N$2</f>
+        <v>-3.1101000000000002E-3</v>
+      </c>
+      <c r="Q29">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>1.3285</v>
+      </c>
+      <c r="U29">
+        <v>-3.1101000000000002E-3</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B30">
+        <v>-5.2499999999999998E-2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>$N$1*A30</f>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="L30">
+        <f>B30*$N$1</f>
+        <v>-2.6250000000000002E-3</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>$N$2*A30</f>
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="P30">
+        <f>B30*$N$2</f>
+        <v>-3.6750000000000003E-3</v>
+      </c>
+      <c r="Q30">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>1.3302499999999999</v>
+      </c>
+      <c r="U30">
+        <v>-3.6750000000000003E-3</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>-5.8529999999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>$N$1*A31</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="L31">
+        <f>B31*$N$1</f>
+        <v>-2.9265000000000003E-3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>$N$2*A31</f>
+        <v>7.000000000000001E-3</v>
+      </c>
+      <c r="P31">
+        <f>B31*$N$2</f>
+        <v>-4.0971000000000002E-3</v>
+      </c>
+      <c r="Q31">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>1.3319999999999999</v>
+      </c>
+      <c r="U31">
+        <v>-4.0971000000000002E-3</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.15</v>
+      </c>
+      <c r="B32">
+        <v>-6.6820000000000004E-2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>$N$1*A32</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L32">
+        <f>B32*$N$1</f>
+        <v>-3.3410000000000002E-3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>$N$2*A32</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="P32">
+        <f>B32*$N$2</f>
+        <v>-4.6774000000000008E-3</v>
+      </c>
+      <c r="Q32">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>1.3354999999999999</v>
+      </c>
+      <c r="U32">
+        <v>-4.6774000000000008E-3</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.2</v>
+      </c>
+      <c r="B33">
+        <v>-7.1720000000000006E-2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>$N$1*A33</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="L33">
+        <f>B33*$N$1</f>
+        <v>-3.5860000000000006E-3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>$N$2*A33</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="P33">
+        <f>B33*$N$2</f>
+        <v>-5.0204000000000013E-3</v>
+      </c>
+      <c r="Q33">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>1.339</v>
+      </c>
+      <c r="U33">
+        <v>-5.0204000000000013E-3</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.25</v>
+      </c>
+      <c r="B34">
+        <v>-7.4270000000000003E-2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>$N$1*A34</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L34">
+        <f>B34*$N$1</f>
+        <v>-3.7135000000000002E-3</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>$N$2*A34</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="P34">
+        <f>B34*$N$2</f>
+        <v>-5.1989000000000011E-3</v>
+      </c>
+      <c r="Q34">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>1.3425</v>
+      </c>
+      <c r="U34">
+        <v>-5.1989000000000011E-3</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.3</v>
+      </c>
+      <c r="B35">
+        <v>-7.5020000000000003E-2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>$N$1*A35</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L35">
+        <f>B35*$N$1</f>
+        <v>-3.7510000000000004E-3</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>$N$2*A35</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P35">
+        <f>B35*$N$2</f>
+        <v>-5.2514000000000007E-3</v>
+      </c>
+      <c r="Q35">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>1.3459999999999999</v>
+      </c>
+      <c r="U35">
+        <v>-5.2514000000000007E-3</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.4</v>
+      </c>
+      <c r="B36">
+        <v>-7.2539999999999993E-2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>$N$1*A36</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L36">
+        <f>B36*$N$1</f>
+        <v>-3.627E-3</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>$N$2*A36</f>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="P36">
+        <f>B36*$N$2</f>
+        <v>-5.0778000000000004E-3</v>
+      </c>
+      <c r="Q36">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>1.353</v>
+      </c>
+      <c r="U36">
+        <v>-5.0778000000000004E-3</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37">
+        <v>-6.6170000000000007E-2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>$N$1*A37</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L37">
+        <f>B37*$N$1</f>
+        <v>-3.3085000000000007E-3</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>$N$2*A37</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P37">
+        <f>B37*$N$2</f>
+        <v>-4.6319000000000013E-3</v>
+      </c>
+      <c r="Q37">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="U37">
+        <v>-4.6319000000000013E-3</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38">
+        <v>-5.704E-2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>$N$1*A38</f>
+        <v>0.03</v>
+      </c>
+      <c r="L38">
+        <f>B38*$N$1</f>
+        <v>-2.8520000000000004E-3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>$N$2*A38</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P38">
+        <f>B38*$N$2</f>
+        <v>-3.9928000000000003E-3</v>
+      </c>
+      <c r="Q38">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>1.367</v>
+      </c>
+      <c r="U38">
+        <v>-3.9928000000000003E-3</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.7</v>
+      </c>
+      <c r="B39">
+        <v>-4.58E-2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>$N$1*A39</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="L39">
+        <f>B39*$N$1</f>
+        <v>-2.2899999999999999E-3</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>$N$2*A39</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P39">
+        <f>B39*$N$2</f>
+        <v>-3.2060000000000005E-3</v>
+      </c>
+      <c r="Q39">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>1.3739999999999999</v>
+      </c>
+      <c r="U39">
+        <v>-3.2060000000000005E-3</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>-3.279E-2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>$N$1*A40</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="L40">
+        <f>B40*$N$1</f>
+        <v>-1.6395000000000001E-3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>$N$2*A40</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="P40">
+        <f>B40*$N$2</f>
+        <v>-2.2953000000000001E-3</v>
+      </c>
+      <c r="Q40">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>1.381</v>
+      </c>
+      <c r="U40">
+        <v>-2.2953000000000001E-3</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>$N$1*A41</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="L41">
+        <f>B41*$N$1</f>
+        <v>-9.050000000000001E-4</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>$N$2*A41</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="P41">
+        <f>B41*$N$2</f>
+        <v>-1.2670000000000003E-3</v>
+      </c>
+      <c r="Q41">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="U41">
+        <v>-1.2670000000000003E-3</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.95</v>
+      </c>
+      <c r="B42">
+        <v>-1.008E-2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f>$N$1*A42</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <f>B42*$N$1</f>
+        <v>-5.04E-4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>$N$2*A42</f>
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="P42">
+        <f>B42*$N$2</f>
+        <v>-7.0560000000000013E-4</v>
+      </c>
+      <c r="Q42">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>1.3915</v>
+      </c>
+      <c r="U42">
+        <v>-7.0560000000000013E-4</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>-1.58E-3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>$N$1*A43</f>
+        <v>0.05</v>
+      </c>
+      <c r="L43">
+        <f>B43*$N$1</f>
+        <v>-7.9000000000000009E-5</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f>$N$2*A43</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P43">
+        <f>B43*$N$2</f>
+        <v>-1.1060000000000002E-4</v>
+      </c>
+      <c r="Q43">
+        <f>$N$3</f>
+        <v>0.15</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="0"/>
+        <v>1.395</v>
+      </c>
+      <c r="U43">
+        <v>-1.1060000000000002E-4</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CAD/naca airfoils.xlsx
+++ b/CAD/naca airfoils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MECH532\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\MECH532\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4268C-784D-4E9B-8282-5E4F60947AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB28E060-50B1-4F8A-AB5D-931328337321}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7590" activeTab="1" xr2:uid="{EB129E29-9C87-4BDF-8167-8C5C29152DE1}"/>
+    <workbookView xWindow="6930" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{EB129E29-9C87-4BDF-8167-8C5C29152DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Wing and Tailplane" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>m</t>
   </si>
   <si>
     <t>MH32</t>
-  </si>
-  <si>
-    <t>Specific</t>
   </si>
   <si>
     <t>Generic</t>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <t>Offset of cutting plane</t>
+  </si>
+  <si>
+    <t>For Tailplane</t>
+  </si>
+  <si>
+    <t>For Wing</t>
   </si>
 </sst>
 </file>
@@ -439,14 +448,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D548378-1CFF-4BFD-AD04-128A9345765E}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -455,19 +465,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>0.1</v>
-      </c>
-      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -482,27 +495,38 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>A2*$K$2</f>
+        <f>A2*$N$2</f>
         <v>0.05</v>
       </c>
       <c r="F2">
-        <f>B2*$K$2</f>
+        <f>B2*$N$2</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>C2*$K$2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+        <f>C2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>A2*$N$1</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J2">
+        <f>B2*$N$1</f>
+        <v>0</v>
       </c>
       <c r="K2">
+        <f>G2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2">
         <v>0.05</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -515,18 +539,29 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">A3*$K$2</f>
+        <f>A3*$N$2</f>
         <v>4.9835900000000002E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">B3*$K$2</f>
+        <f>B3*$N$2</f>
         <v>1.7399999999999999E-5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">C3*$K$2</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="1"/>
+        <f>C3*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">A3*$N$1</f>
+        <v>0.175422368</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">B3*$N$1</f>
+        <v>6.1247999999999994E-5</v>
+      </c>
+      <c r="K3">
+        <f>G3*$N$2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -539,27 +574,38 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>A4*$N$2</f>
         <v>4.9353250000000001E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>B4*$N$2</f>
         <v>7.5000000000000007E-5</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
+        <f>C4*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.17372343999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2.6399999999999997E-4</v>
       </c>
       <c r="K4">
+        <f>G4*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>1.8</v>
       </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1"/>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -572,27 +618,38 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>A5*$N$2</f>
         <v>4.8572799999999999E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f>B5*$N$2</f>
         <v>1.8165E-4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
+        <f>C5*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.17097625599999999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>6.3940799999999995E-4</v>
       </c>
       <c r="K5">
+        <f>G5*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1"/>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -605,15 +662,27 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>A6*$N$2</f>
         <v>4.7517549999999999E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>B6*$N$2</f>
         <v>3.3890000000000005E-4</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f>C6*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.16726177599999997</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.192928E-3</v>
+      </c>
+      <c r="K6">
+        <f>G6*$N$2</f>
         <v>0</v>
       </c>
       <c r="O6" s="1"/>
@@ -629,15 +698,27 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>A7*$N$2</f>
         <v>4.6212000000000003E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>B7*$N$2</f>
         <v>5.4345000000000001E-4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f>C7*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.16266623999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.912944E-3</v>
+      </c>
+      <c r="K7">
+        <f>G7*$N$2</f>
         <v>0</v>
       </c>
       <c r="O7" s="1"/>
@@ -653,15 +734,27 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>A8*$N$2</f>
         <v>4.4681200000000004E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>B8*$N$2</f>
         <v>7.8850000000000003E-4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f>C8*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.15727782399999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>2.7755199999999996E-3</v>
+      </c>
+      <c r="K8">
+        <f>G8*$N$2</f>
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
@@ -677,15 +770,27 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>A9*$N$2</f>
         <v>4.2950300000000004E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f>B9*$N$2</f>
         <v>1.0647E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>C9*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.15118505600000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.7477439999999999E-3</v>
+      </c>
+      <c r="K9">
+        <f>G9*$N$2</f>
         <v>0</v>
       </c>
       <c r="O9" s="1"/>
@@ -701,15 +806,27 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>A10*$N$2</f>
         <v>4.1044550000000006E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f>B10*$N$2</f>
         <v>1.3610000000000002E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f>C10*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.14447681600000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4.79072E-3</v>
+      </c>
+      <c r="K10">
+        <f>G10*$N$2</f>
         <v>0</v>
       </c>
       <c r="O10" s="1"/>
@@ -725,15 +842,27 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>A11*$N$2</f>
         <v>3.8988700000000001E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>B11*$N$2</f>
         <v>1.6645500000000001E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>C11*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.13724022399999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>5.8592159999999996E-3</v>
+      </c>
+      <c r="K11">
+        <f>G11*$N$2</f>
         <v>0</v>
       </c>
       <c r="O11" s="1"/>
@@ -749,15 +878,27 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>A12*$N$2</f>
         <v>3.6804700000000003E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f>B12*$N$2</f>
         <v>1.9613500000000002E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f>C12*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.12955254399999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>6.9039519999999997E-3</v>
+      </c>
+      <c r="K12">
+        <f>G12*$N$2</f>
         <v>0</v>
       </c>
       <c r="O12" s="1"/>
@@ -773,15 +914,27 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>A13*$N$2</f>
         <v>3.4511550000000002E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f>B13*$N$2</f>
         <v>2.2409499999999998E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f>C13*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.12148065600000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>7.8881439999999997E-3</v>
+      </c>
+      <c r="K13">
+        <f>G13*$N$2</f>
         <v>0</v>
       </c>
       <c r="O13" s="1"/>
@@ -797,15 +950,27 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>A14*$N$2</f>
         <v>3.212955E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f>B14*$N$2</f>
         <v>2.4970500000000002E-3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f>C14*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.11309601599999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>8.7896160000000001E-3</v>
+      </c>
+      <c r="K14">
+        <f>G14*$N$2</f>
         <v>0</v>
       </c>
       <c r="O14" s="1"/>
@@ -821,15 +986,27 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>A15*$N$2</f>
         <v>2.9680800000000004E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f>B15*$N$2</f>
         <v>2.72595E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f>C15*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.104476416</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>9.5953439999999987E-3</v>
+      </c>
+      <c r="K15">
+        <f>G15*$N$2</f>
         <v>0</v>
       </c>
       <c r="O15" s="1"/>
@@ -845,15 +1022,27 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>A16*$N$2</f>
         <v>2.719135E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f>B16*$N$2</f>
         <v>2.9261500000000002E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f>C16*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>9.571355199999998E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.0300047999999999E-2</v>
+      </c>
+      <c r="K16">
+        <f>G16*$N$2</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
@@ -869,15 +1058,27 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>A17*$N$2</f>
         <v>2.4690900000000002E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f>B17*$N$2</f>
         <v>3.09305E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f>C17*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>8.6911967999999992E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.0887536E-2</v>
+      </c>
+      <c r="K17">
+        <f>G17*$N$2</f>
         <v>0</v>
       </c>
       <c r="O17" s="1"/>
@@ -893,15 +1094,27 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>A18*$N$2</f>
         <v>2.2205550000000001E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f>B18*$N$2</f>
         <v>3.2183000000000003E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f>C18*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>7.8163535999999992E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.1328416000000001E-2</v>
+      </c>
+      <c r="K18">
+        <f>G18*$N$2</f>
         <v>0</v>
       </c>
       <c r="O18" s="1"/>
@@ -917,15 +1130,27 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>A19*$N$2</f>
         <v>1.9757250000000004E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f>B19*$N$2</f>
         <v>3.2979000000000003E-3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f>C19*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>6.954552E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.1608607999999999E-2</v>
+      </c>
+      <c r="K19">
+        <f>G19*$N$2</f>
         <v>0</v>
       </c>
       <c r="O19" s="1"/>
@@ -941,15 +1166,27 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>A20*$N$2</f>
         <v>1.737095E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f>B20*$N$2</f>
         <v>3.3302499999999999E-3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f>C20*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>6.1145743999999995E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.1722479999999999E-2</v>
+      </c>
+      <c r="K20">
+        <f>G20*$N$2</f>
         <v>0</v>
       </c>
       <c r="O20" s="1"/>
@@ -965,15 +1202,27 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>A21*$N$2</f>
         <v>1.507025E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f>B21*$N$2</f>
         <v>3.3109000000000003E-3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f>C21*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>5.3047279999999995E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.1654368E-2</v>
+      </c>
+      <c r="K21">
+        <f>G21*$N$2</f>
         <v>0</v>
       </c>
       <c r="O21" s="1"/>
@@ -989,15 +1238,27 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>A22*$N$2</f>
         <v>1.2873450000000002E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f>B22*$N$2</f>
         <v>3.2384499999999999E-3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f>C22*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>4.5314543999999998E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.1399343999999999E-2</v>
+      </c>
+      <c r="K22">
+        <f>G22*$N$2</f>
         <v>0</v>
       </c>
       <c r="O22" s="1"/>
@@ -1013,15 +1274,27 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>A23*$N$2</f>
         <v>1.0801350000000001E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f>B23*$N$2</f>
         <v>3.1160500000000004E-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f>C23*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3.8020751999999998E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.0968495999999999E-2</v>
+      </c>
+      <c r="K23">
+        <f>G23*$N$2</f>
         <v>0</v>
       </c>
       <c r="O23" s="1"/>
@@ -1037,15 +1310,27 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>A24*$N$2</f>
         <v>8.8745000000000004E-3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f>B24*$N$2</f>
         <v>2.9432E-3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f>C24*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3.123824E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1.0360063999999999E-2</v>
+      </c>
+      <c r="K24">
+        <f>G24*$N$2</f>
         <v>0</v>
       </c>
       <c r="O24" s="1"/>
@@ -1061,15 +1346,27 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>A25*$N$2</f>
         <v>7.1081500000000006E-3</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>B25*$N$2</f>
         <v>2.72105E-3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f>C25*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2.5020687999999999E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>9.5780959999999995E-3</v>
+      </c>
+      <c r="K25">
+        <f>G25*$N$2</f>
         <v>0</v>
       </c>
       <c r="O25" s="1"/>
@@ -1085,15 +1382,27 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>A26*$N$2</f>
         <v>5.5162000000000006E-3</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f>B26*$N$2</f>
         <v>2.4537000000000001E-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f>C26*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1.9417024000000001E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>8.6370240000000001E-3</v>
+      </c>
+      <c r="K26">
+        <f>G26*$N$2</f>
         <v>0</v>
       </c>
       <c r="O26" s="1"/>
@@ -1109,15 +1418,27 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>A27*$N$2</f>
         <v>4.1110000000000001E-3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f>B27*$N$2</f>
         <v>2.1464000000000001E-3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f>C27*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1.4470719999999999E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>7.555328E-3</v>
+      </c>
+      <c r="K27">
+        <f>G27*$N$2</f>
         <v>0</v>
       </c>
       <c r="O27" s="1"/>
@@ -1133,15 +1454,27 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>A28*$N$2</f>
         <v>2.9026500000000001E-3</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f>B28*$N$2</f>
         <v>1.8053500000000001E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>C28*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1.0217327999999999E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>6.3548319999999995E-3</v>
+      </c>
+      <c r="K28">
+        <f>G28*$N$2</f>
         <v>0</v>
       </c>
       <c r="O28" s="1"/>
@@ -1157,15 +1490,27 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>A29*$N$2</f>
         <v>1.8981499999999999E-3</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f>B29*$N$2</f>
         <v>1.4392000000000001E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>C29*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>6.6814879999999993E-3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>5.0659839999999999E-3</v>
+      </c>
+      <c r="K29">
+        <f>G29*$N$2</f>
         <v>0</v>
       </c>
       <c r="O29" s="1"/>
@@ -1181,15 +1526,27 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>A30*$N$2</f>
         <v>1.1028500000000001E-3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f>B30*$N$2</f>
         <v>1.0588500000000001E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f>C30*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>3.8820319999999997E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>3.7271520000000001E-3</v>
+      </c>
+      <c r="K30">
+        <f>G30*$N$2</f>
         <v>0</v>
       </c>
       <c r="O30" s="1"/>
@@ -1205,15 +1562,27 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>A31*$N$2</f>
         <v>5.1885000000000006E-4</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f>B31*$N$2</f>
         <v>6.7960000000000004E-4</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f>C31*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1.8263520000000001E-3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2.392192E-3</v>
+      </c>
+      <c r="K31">
+        <f>G31*$N$2</f>
         <v>0</v>
       </c>
       <c r="O31" s="1"/>
@@ -1229,15 +1598,27 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>A32*$N$2</f>
         <v>1.5035000000000002E-4</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f>B32*$N$2</f>
         <v>3.2335000000000003E-4</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f>C32*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>5.2923200000000003E-4</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.1381919999999999E-3</v>
+      </c>
+      <c r="K32">
+        <f>G32*$N$2</f>
         <v>0</v>
       </c>
       <c r="O32" s="1"/>
@@ -1253,15 +1634,27 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>A33*$N$2</f>
         <v>9.2449999999999997E-5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f>B33*$N$2</f>
         <v>2.4015000000000001E-4</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f>C33*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>3.2542399999999999E-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>8.453279999999999E-4</v>
+      </c>
+      <c r="K33">
+        <f>G33*$N$2</f>
         <v>0</v>
       </c>
       <c r="O33" s="1"/>
@@ -1277,15 +1670,27 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>A34*$N$2</f>
         <v>4.0700000000000007E-5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f>B34*$N$2</f>
         <v>1.4635000000000001E-4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f>C34*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1.4326399999999999E-4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>5.1515199999999995E-4</v>
+      </c>
+      <c r="K34">
+        <f>G34*$N$2</f>
         <v>0</v>
       </c>
       <c r="O34" s="1"/>
@@ -1301,15 +1706,27 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>A35*$N$2</f>
         <v>9.0500000000000014E-6</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f>B35*$N$2</f>
         <v>6.0700000000000005E-5</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f>C35*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3.1856000000000001E-5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>2.1366399999999999E-4</v>
+      </c>
+      <c r="K35">
+        <f>G35*$N$2</f>
         <v>0</v>
       </c>
       <c r="O35" s="1"/>
@@ -1325,15 +1742,27 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>A36*$N$2</f>
         <v>2.5000000000000004E-7</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f>B36*$N$2</f>
         <v>9.2500000000000012E-6</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f>C36*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000004E-7</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>3.256E-5</v>
+      </c>
+      <c r="K36">
+        <f>G36*$N$2</f>
         <v>0</v>
       </c>
       <c r="O36" s="1"/>
@@ -1349,15 +1778,27 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f>A37*$N$2</f>
         <v>4.1000000000000006E-6</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f>B37*$N$2</f>
         <v>-3.54E-5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f>C37*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1.4432E-5</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-1.2460799999999998E-4</v>
+      </c>
+      <c r="K37">
+        <f>G37*$N$2</f>
         <v>0</v>
       </c>
       <c r="O37" s="1"/>
@@ -1373,15 +1814,27 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f>A38*$N$2</f>
         <v>2.44E-5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f>B38*$N$2</f>
         <v>-7.6500000000000003E-5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f>C38*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>8.5887999999999988E-5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-2.6927999999999994E-4</v>
+      </c>
+      <c r="K38">
+        <f>G38*$N$2</f>
         <v>0</v>
       </c>
       <c r="O38" s="1"/>
@@ -1397,15 +1850,27 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>A39*$N$2</f>
         <v>6.0250000000000001E-5</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f>B39*$N$2</f>
         <v>-1.1860000000000001E-4</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f>C39*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>2.1207999999999996E-4</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-4.1747199999999995E-4</v>
+      </c>
+      <c r="K39">
+        <f>G39*$N$2</f>
         <v>0</v>
       </c>
       <c r="O39" s="1"/>
@@ -1421,15 +1886,27 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>A40*$N$2</f>
         <v>1.3684999999999999E-4</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f>B40*$N$2</f>
         <v>-1.8270000000000002E-4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f>C40*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>4.8171199999999997E-4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-6.4310400000000003E-4</v>
+      </c>
+      <c r="K40">
+        <f>G40*$N$2</f>
         <v>0</v>
       </c>
       <c r="O40" s="1"/>
@@ -1445,15 +1922,27 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>A41*$N$2</f>
         <v>2.3825000000000002E-4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f>B41*$N$2</f>
         <v>-2.4705000000000001E-4</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f>C41*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>8.3863999999999998E-4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-8.6961599999999992E-4</v>
+      </c>
+      <c r="K41">
+        <f>G41*$N$2</f>
         <v>0</v>
       </c>
       <c r="O41" s="1"/>
@@ -1469,15 +1958,27 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>A42*$N$2</f>
         <v>5.9650000000000002E-4</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f>B42*$N$2</f>
         <v>-4.0460000000000002E-4</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f>C42*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>2.0996799999999996E-3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-1.4241919999999999E-3</v>
+      </c>
+      <c r="K42">
+        <f>G42*$N$2</f>
         <v>0</v>
       </c>
       <c r="O42" s="1"/>
@@ -1493,15 +1994,27 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>A43*$N$2</f>
         <v>1.3021E-3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f>B43*$N$2</f>
         <v>-5.9915000000000012E-4</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f>C43*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>4.5833919999999995E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-2.1090079999999999E-3</v>
+      </c>
+      <c r="K43">
+        <f>G43*$N$2</f>
         <v>0</v>
       </c>
       <c r="O43" s="1"/>
@@ -1517,15 +2030,27 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>A44*$N$2</f>
         <v>2.2602500000000001E-3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f>B44*$N$2</f>
         <v>-7.6660000000000009E-4</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f>C44*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>7.9560799999999991E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-2.6984319999999997E-3</v>
+      </c>
+      <c r="K44">
+        <f>G44*$N$2</f>
         <v>0</v>
       </c>
       <c r="O44" s="1"/>
@@ -1541,15 +2066,27 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>A45*$N$2</f>
         <v>3.4630000000000004E-3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f>B45*$N$2</f>
         <v>-9.0244999999999995E-4</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f>C45*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1.2189759999999999E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>-3.1766239999999999E-3</v>
+      </c>
+      <c r="K45">
+        <f>G45*$N$2</f>
         <v>0</v>
       </c>
       <c r="O45" s="1"/>
@@ -1565,15 +2102,27 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>A46*$N$2</f>
         <v>4.9008999999999997E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f>B46*$N$2</f>
         <v>-1.00395E-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f>C46*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1.7251167999999997E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-3.5339039999999996E-3</v>
+      </c>
+      <c r="K46">
+        <f>G46*$N$2</f>
         <v>0</v>
       </c>
       <c r="O46" s="1"/>
@@ -1589,15 +2138,27 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f>A47*$N$2</f>
         <v>6.5622500000000004E-3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f>B47*$N$2</f>
         <v>-1.0710000000000001E-3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f>C47*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2.3099119999999997E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>-3.76992E-3</v>
+      </c>
+      <c r="K47">
+        <f>G47*$N$2</f>
         <v>0</v>
       </c>
       <c r="O47" s="1"/>
@@ -1613,15 +2174,27 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>A48*$N$2</f>
         <v>8.4320999999999997E-3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f>B48*$N$2</f>
         <v>-1.1048000000000002E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f>C48*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2.9680991999999996E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>-3.8888959999999998E-3</v>
+      </c>
+      <c r="K48">
+        <f>G48*$N$2</f>
         <v>0</v>
       </c>
       <c r="O48" s="1"/>
@@ -1637,15 +2210,27 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>A49*$N$2</f>
         <v>1.0492899999999999E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f>B49*$N$2</f>
         <v>-1.108E-3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f>C49*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>3.6935007999999998E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>-3.9001599999999997E-3</v>
+      </c>
+      <c r="K49">
+        <f>G49*$N$2</f>
         <v>0</v>
       </c>
       <c r="O49" s="1"/>
@@ -1661,15 +2246,27 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f>A50*$N$2</f>
         <v>1.27238E-2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f>B50*$N$2</f>
         <v>-1.0841500000000001E-3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f>C50*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>4.4787775999999994E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>-3.8162079999999998E-3</v>
+      </c>
+      <c r="K50">
+        <f>G50*$N$2</f>
         <v>0</v>
       </c>
       <c r="O50" s="1"/>
@@ -1685,15 +2282,27 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f>A51*$N$2</f>
         <v>1.5101100000000001E-2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f>B51*$N$2</f>
         <v>-1.0372000000000001E-3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f>C51*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>5.3155872E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>-3.6509439999999997E-3</v>
+      </c>
+      <c r="K51">
+        <f>G51*$N$2</f>
         <v>0</v>
       </c>
       <c r="O51" s="1"/>
@@ -1709,15 +2318,27 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>A52*$N$2</f>
         <v>1.7598849999999999E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f>B52*$N$2</f>
         <v>-9.7109999999999991E-4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f>C52*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>6.1947951999999994E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>-3.4182719999999995E-3</v>
+      </c>
+      <c r="K52">
+        <f>G52*$N$2</f>
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
@@ -1733,15 +2354,27 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f>A53*$N$2</f>
         <v>2.018905E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f>B53*$N$2</f>
         <v>-8.8974999999999992E-4</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f>C53*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>7.1065455999999999E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>-3.1319199999999994E-3</v>
+      </c>
+      <c r="K53">
+        <f>G53*$N$2</f>
         <v>0</v>
       </c>
       <c r="O53" s="1"/>
@@ -1757,15 +2390,27 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f>A54*$N$2</f>
         <v>2.2842650000000003E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f>B54*$N$2</f>
         <v>-7.9694999999999994E-4</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f>C54*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>8.0406127999999993E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>-2.8052639999999996E-3</v>
+      </c>
+      <c r="K54">
+        <f>G54*$N$2</f>
         <v>0</v>
       </c>
       <c r="O54" s="1"/>
@@ -1781,15 +2426,27 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f>A55*$N$2</f>
         <v>2.5529400000000004E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f>B55*$N$2</f>
         <v>-6.9635000000000009E-4</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f>C55*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>8.9863488000000005E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>-2.4511519999999998E-3</v>
+      </c>
+      <c r="K55">
+        <f>G55*$N$2</f>
         <v>0</v>
       </c>
       <c r="O55" s="1"/>
@@ -1805,15 +2462,27 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f>A56*$N$2</f>
         <v>2.82186E-2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f>B56*$N$2</f>
         <v>-5.918500000000001E-4</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f>C56*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>9.9329471999999988E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>-2.0833119999999999E-3</v>
+      </c>
+      <c r="K56">
+        <f>G56*$N$2</f>
         <v>0</v>
       </c>
       <c r="O56" s="1"/>
@@ -1829,15 +2498,27 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f>A57*$N$2</f>
         <v>3.08791E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f>B57*$N$2</f>
         <v>-4.8710000000000008E-4</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f>C57*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0.10869443199999999</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>-1.714592E-3</v>
+      </c>
+      <c r="K57">
+        <f>G57*$N$2</f>
         <v>0</v>
       </c>
       <c r="O57" s="1"/>
@@ -1853,15 +2534,27 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f>A58*$N$2</f>
         <v>3.3479500000000002E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f>B58*$N$2</f>
         <v>-3.8600000000000006E-4</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f>C58*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0.11784784</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>-1.3587199999999999E-3</v>
+      </c>
+      <c r="K58">
+        <f>G58*$N$2</f>
         <v>0</v>
       </c>
       <c r="O58" s="1"/>
@@ -1877,15 +2570,27 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f>A59*$N$2</f>
         <v>3.5988600000000003E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f>B59*$N$2</f>
         <v>-2.9179999999999999E-4</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f>C59*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>0.126679872</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>-1.0271359999999999E-3</v>
+      </c>
+      <c r="K59">
+        <f>G59*$N$2</f>
         <v>0</v>
       </c>
       <c r="O59" s="1"/>
@@ -1901,15 +2606,27 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>A60*$N$2</f>
         <v>3.8375700000000006E-2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f>B60*$N$2</f>
         <v>-2.075E-4</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f>C60*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0.13508246399999999</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>-7.3039999999999997E-4</v>
+      </c>
+      <c r="K60">
+        <f>G60*$N$2</f>
         <v>0</v>
       </c>
       <c r="O60" s="1"/>
@@ -1925,15 +2642,27 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f>A61*$N$2</f>
         <v>4.06112E-2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f>B61*$N$2</f>
         <v>-1.3560000000000002E-4</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f>C61*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0.14295142399999999</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>-4.7731199999999997E-4</v>
+      </c>
+      <c r="K61">
+        <f>G61*$N$2</f>
         <v>0</v>
       </c>
       <c r="O61" s="1"/>
@@ -1949,15 +2678,27 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f>A62*$N$2</f>
         <v>4.2666250000000003E-2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f>B62*$N$2</f>
         <v>-7.8400000000000008E-5</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f>C62*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0.15018519999999999</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>-2.7596799999999997E-4</v>
+      </c>
+      <c r="K62">
+        <f>G62*$N$2</f>
         <v>0</v>
       </c>
       <c r="O62" s="1"/>
@@ -1973,15 +2714,27 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f>A63*$N$2</f>
         <v>4.4513049999999998E-2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f>B63*$N$2</f>
         <v>-3.6600000000000002E-5</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f>C63*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>0.156685936</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>-1.28832E-4</v>
+      </c>
+      <c r="K63">
+        <f>G63*$N$2</f>
         <v>0</v>
       </c>
       <c r="O63" s="1"/>
@@ -1997,15 +2750,27 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f>A64*$N$2</f>
         <v>4.6126250000000008E-2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f>B64*$N$2</f>
         <v>-9.7499999999999998E-6</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f>C64*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0.16236439999999999</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>-3.4319999999999997E-5</v>
+      </c>
+      <c r="K64">
+        <f>G64*$N$2</f>
         <v>0</v>
       </c>
       <c r="O64" s="1"/>
@@ -2021,15 +2786,27 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f>A65*$N$2</f>
         <v>4.7482950000000003E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f>B65*$N$2</f>
         <v>3.9500000000000003E-6</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f>C65*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0.16713998399999999</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>1.3903999999999998E-5</v>
+      </c>
+      <c r="K65">
+        <f>G65*$N$2</f>
         <v>0</v>
       </c>
       <c r="O65" s="1"/>
@@ -2045,15 +2822,27 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f>A66*$N$2</f>
         <v>4.8562950000000001E-2</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f>B66*$N$2</f>
         <v>7.6000000000000009E-6</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f>C66*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0.17094158399999998</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>2.6752000000000001E-5</v>
+      </c>
+      <c r="K66">
+        <f>G66*$N$2</f>
         <v>0</v>
       </c>
       <c r="O66" s="1"/>
@@ -2069,15 +2858,27 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E69" si="3">A67*$K$2</f>
+        <f>A67*$N$2</f>
         <v>4.9350600000000001E-2</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F69" si="4">B67*$K$2</f>
+        <f>B67*$N$2</f>
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G69" si="5">C67*$K$2</f>
+        <f>C67*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I69" si="2">A67*$N$1</f>
+        <v>0.173714112</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J69" si="3">B67*$N$1</f>
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="K67">
+        <f>G67*$N$2</f>
         <v>0</v>
       </c>
       <c r="O67" s="1"/>
@@ -2093,15 +2894,27 @@
         <v>0</v>
       </c>
       <c r="E68">
+        <f>A68*$N$2</f>
+        <v>4.9834850000000007E-2</v>
+      </c>
+      <c r="F68">
+        <f>B68*$N$2</f>
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="G68">
+        <f>C68*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>0.175418672</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="3"/>
-        <v>4.9834850000000007E-2</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="4"/>
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="5"/>
+        <v>8.8000000000000004E-6</v>
+      </c>
+      <c r="K68">
+        <f>G68*$N$2</f>
         <v>0</v>
       </c>
       <c r="O68" s="1"/>
@@ -2117,15 +2930,27 @@
         <v>0</v>
       </c>
       <c r="E69">
+        <f>A69*$N$2</f>
+        <v>0.05</v>
+      </c>
+      <c r="F69">
+        <f>B69*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>C69*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f>G69*$N$2</f>
         <v>0</v>
       </c>
       <c r="O69" s="1"/>
@@ -2147,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2E3A9D-DA5B-4F82-946E-8F4FD58210EA}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2155,7 +2980,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1">
         <v>0.05</v>
@@ -2163,7 +2988,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2">
         <v>7.0000000000000007E-2</v>
@@ -2171,7 +2996,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>0.15</v>
@@ -2180,7 +3005,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>8.7999999999999995E-2</v>
@@ -2188,7 +3013,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1.325</v>
@@ -2196,18 +3021,18 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
       <c r="T6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -2224,26 +3049,26 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>$N$1*A9</f>
+        <f t="shared" ref="K9:K43" si="0">$N$1*A9</f>
         <v>0.05</v>
       </c>
       <c r="L9">
-        <f>B9*$N$1</f>
+        <f t="shared" ref="L9:L43" si="1">B9*$N$1</f>
         <v>7.9000000000000009E-5</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="O9">
-        <f>$N$2*A9</f>
+        <f t="shared" ref="O9:O43" si="2">$N$2*A9</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P9">
-        <f>B9*$N$2</f>
+        <f t="shared" ref="P9:P43" si="3">B9*$N$2</f>
         <v>1.1060000000000002E-4</v>
       </c>
       <c r="Q9">
-        <f>$N$3</f>
+        <f t="shared" ref="Q9:Q43" si="4">$N$3</f>
         <v>0.15</v>
       </c>
       <c r="T9">
@@ -2273,37 +3098,37 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>$N$1*A10</f>
+        <f t="shared" si="0"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="L10">
-        <f>B10*$N$1</f>
+        <f t="shared" si="1"/>
         <v>5.04E-4</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="O10">
-        <f>$N$2*A10</f>
+        <f t="shared" si="2"/>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="P10">
-        <f>B10*$N$2</f>
+        <f t="shared" si="3"/>
         <v>7.0560000000000013E-4</v>
       </c>
       <c r="Q10">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:T43" si="0">O10+$N$5</f>
+        <f t="shared" ref="T10:T43" si="5">O10+$N$5</f>
         <v>1.3915</v>
       </c>
       <c r="U10">
         <v>7.0560000000000013E-4</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10:V43" si="1">$N$4</f>
+        <f t="shared" ref="V10:V43" si="6">$N$4</f>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2318,37 +3143,37 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>$N$1*A11</f>
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="L11">
-        <f>B11*$N$1</f>
+        <f t="shared" si="1"/>
         <v>9.050000000000001E-4</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="O11">
-        <f>$N$2*A11</f>
+        <f t="shared" si="2"/>
         <v>6.3000000000000014E-2</v>
       </c>
       <c r="P11">
-        <f>B11*$N$2</f>
+        <f t="shared" si="3"/>
         <v>1.2670000000000003E-3</v>
       </c>
       <c r="Q11">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3879999999999999</v>
       </c>
       <c r="U11">
         <v>1.2670000000000003E-3</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2363,37 +3188,37 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>$N$1*A12</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="L12">
-        <f>B12*$N$1</f>
+        <f t="shared" si="1"/>
         <v>1.6395000000000001E-3</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="O12">
-        <f>$N$2*A12</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="P12">
-        <f>B12*$N$2</f>
+        <f t="shared" si="3"/>
         <v>2.2953000000000001E-3</v>
       </c>
       <c r="Q12">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.381</v>
       </c>
       <c r="U12">
         <v>2.2953000000000001E-3</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2408,37 +3233,37 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>$N$1*A13</f>
+        <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="L13">
-        <f>B13*$N$1</f>
+        <f t="shared" si="1"/>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="O13">
-        <f>$N$2*A13</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="P13">
-        <f>B13*$N$2</f>
+        <f t="shared" si="3"/>
         <v>3.2060000000000005E-3</v>
       </c>
       <c r="Q13">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3739999999999999</v>
       </c>
       <c r="U13">
         <v>3.2060000000000005E-3</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2453,37 +3278,37 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f>$N$1*A14</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="L14">
-        <f>B14*$N$1</f>
+        <f t="shared" si="1"/>
         <v>2.8520000000000004E-3</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="O14">
-        <f>$N$2*A14</f>
+        <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="P14">
-        <f>B14*$N$2</f>
+        <f t="shared" si="3"/>
         <v>3.9928000000000003E-3</v>
       </c>
       <c r="Q14">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.367</v>
       </c>
       <c r="U14">
         <v>3.9928000000000003E-3</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2498,37 +3323,37 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>$N$1*A15</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L15">
-        <f>B15*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.3085000000000007E-3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="O15">
-        <f>$N$2*A15</f>
+        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P15">
-        <f>B15*$N$2</f>
+        <f t="shared" si="3"/>
         <v>4.6319000000000013E-3</v>
       </c>
       <c r="Q15">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3599999999999999</v>
       </c>
       <c r="U15">
         <v>4.6319000000000013E-3</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2543,37 +3368,37 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>$N$1*A16</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="L16">
-        <f>B16*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.627E-3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="O16">
-        <f>$N$2*A16</f>
+        <f t="shared" si="2"/>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="P16">
-        <f>B16*$N$2</f>
+        <f t="shared" si="3"/>
         <v>5.0778000000000004E-3</v>
       </c>
       <c r="Q16">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.353</v>
       </c>
       <c r="U16">
         <v>5.0778000000000004E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2588,37 +3413,37 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>$N$1*A17</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L17">
-        <f>B17*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.7510000000000004E-3</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="O17">
-        <f>$N$2*A17</f>
+        <f t="shared" si="2"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P17">
-        <f>B17*$N$2</f>
+        <f t="shared" si="3"/>
         <v>5.2514000000000007E-3</v>
       </c>
       <c r="Q17">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3459999999999999</v>
       </c>
       <c r="U17">
         <v>5.2514000000000007E-3</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2633,37 +3458,37 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>$N$1*A18</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L18">
-        <f>B18*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.7135000000000002E-3</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="O18">
-        <f>$N$2*A18</f>
+        <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="P18">
-        <f>B18*$N$2</f>
+        <f t="shared" si="3"/>
         <v>5.1989000000000011E-3</v>
       </c>
       <c r="Q18">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3425</v>
       </c>
       <c r="U18">
         <v>5.1989000000000011E-3</v>
       </c>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2678,37 +3503,37 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>$N$1*A19</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="L19">
-        <f>B19*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.5860000000000006E-3</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="O19">
-        <f>$N$2*A19</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="P19">
-        <f>B19*$N$2</f>
+        <f t="shared" si="3"/>
         <v>5.0204000000000013E-3</v>
       </c>
       <c r="Q19">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.339</v>
       </c>
       <c r="U19">
         <v>5.0204000000000013E-3</v>
       </c>
       <c r="V19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2723,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f>$N$1*A20</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L20">
-        <f>B20*$N$1</f>
+        <f t="shared" si="1"/>
         <v>3.3410000000000002E-3</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="O20">
-        <f>$N$2*A20</f>
+        <f t="shared" si="2"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="P20">
-        <f>B20*$N$2</f>
+        <f t="shared" si="3"/>
         <v>4.6774000000000008E-3</v>
       </c>
       <c r="Q20">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3354999999999999</v>
       </c>
       <c r="U20">
         <v>4.6774000000000008E-3</v>
       </c>
       <c r="V20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2768,37 +3593,37 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f>$N$1*A21</f>
+        <f t="shared" si="0"/>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="L21">
-        <f>B21*$N$1</f>
+        <f t="shared" si="1"/>
         <v>2.9265000000000003E-3</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="O21">
-        <f>$N$2*A21</f>
+        <f t="shared" si="2"/>
         <v>7.000000000000001E-3</v>
       </c>
       <c r="P21">
-        <f>B21*$N$2</f>
+        <f t="shared" si="3"/>
         <v>4.0971000000000002E-3</v>
       </c>
       <c r="Q21">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3319999999999999</v>
       </c>
       <c r="U21">
         <v>4.0971000000000002E-3</v>
       </c>
       <c r="V21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2813,37 +3638,37 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>$N$1*A22</f>
+        <f t="shared" si="0"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="L22">
-        <f>B22*$N$1</f>
+        <f t="shared" si="1"/>
         <v>2.6250000000000002E-3</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="O22">
-        <f>$N$2*A22</f>
+        <f t="shared" si="2"/>
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="P22">
-        <f>B22*$N$2</f>
+        <f t="shared" si="3"/>
         <v>3.6750000000000003E-3</v>
       </c>
       <c r="Q22">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3302499999999999</v>
       </c>
       <c r="U22">
         <v>3.6750000000000003E-3</v>
       </c>
       <c r="V22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2858,37 +3683,37 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>$N$1*A23</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="L23">
-        <f>B23*$N$1</f>
+        <f t="shared" si="1"/>
         <v>2.2215E-3</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="O23">
-        <f>$N$2*A23</f>
+        <f t="shared" si="2"/>
         <v>3.5000000000000005E-3</v>
       </c>
       <c r="P23">
-        <f>B23*$N$2</f>
+        <f t="shared" si="3"/>
         <v>3.1101000000000002E-3</v>
       </c>
       <c r="Q23">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3285</v>
       </c>
       <c r="U23">
         <v>3.1101000000000002E-3</v>
       </c>
       <c r="V23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2903,37 +3728,37 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f>$N$1*A24</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000002E-3</v>
       </c>
       <c r="L24">
-        <f>B24*$N$1</f>
+        <f t="shared" si="1"/>
         <v>1.634E-3</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="O24">
-        <f>$N$2*A24</f>
+        <f t="shared" si="2"/>
         <v>1.7500000000000003E-3</v>
       </c>
       <c r="P24">
-        <f>B24*$N$2</f>
+        <f t="shared" si="3"/>
         <v>2.2876000000000003E-3</v>
       </c>
       <c r="Q24">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3267499999999999</v>
       </c>
       <c r="U24">
         <v>2.2876000000000003E-3</v>
       </c>
       <c r="V24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2948,37 +3773,37 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>$N$1*A25</f>
+        <f t="shared" si="0"/>
         <v>6.2500000000000012E-4</v>
       </c>
       <c r="L25">
-        <f>B25*$N$1</f>
+        <f t="shared" si="1"/>
         <v>1.1835000000000001E-3</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="O25">
-        <f>$N$2*A25</f>
+        <f t="shared" si="2"/>
         <v>8.7500000000000013E-4</v>
       </c>
       <c r="P25">
-        <f>B25*$N$2</f>
+        <f t="shared" si="3"/>
         <v>1.6569000000000002E-3</v>
       </c>
       <c r="Q25">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3258749999999999</v>
       </c>
       <c r="U25">
         <v>1.6569000000000002E-3</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -2993,37 +3818,37 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f>$N$1*A26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>B26*$N$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="O26">
-        <f>$N$2*A26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>B26*$N$2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.325</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3038,37 +3863,37 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f>$N$1*A27</f>
+        <f t="shared" si="0"/>
         <v>6.2500000000000012E-4</v>
       </c>
       <c r="L27">
-        <f>B27*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-1.1835000000000001E-3</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="O27">
-        <f>$N$2*A27</f>
+        <f t="shared" si="2"/>
         <v>8.7500000000000013E-4</v>
       </c>
       <c r="P27">
-        <f>B27*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-1.6569000000000002E-3</v>
       </c>
       <c r="Q27">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3258749999999999</v>
       </c>
       <c r="U27">
         <v>-1.6569000000000002E-3</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3083,37 +3908,37 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <f>$N$1*A28</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000002E-3</v>
       </c>
       <c r="L28">
-        <f>B28*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-1.634E-3</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="O28">
-        <f>$N$2*A28</f>
+        <f t="shared" si="2"/>
         <v>1.7500000000000003E-3</v>
       </c>
       <c r="P28">
-        <f>B28*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-2.2876000000000003E-3</v>
       </c>
       <c r="Q28">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3267499999999999</v>
       </c>
       <c r="U28">
         <v>-2.2876000000000003E-3</v>
       </c>
       <c r="V28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3128,37 +3953,37 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>$N$1*A29</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="L29">
-        <f>B29*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-2.2215E-3</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="O29">
-        <f>$N$2*A29</f>
+        <f t="shared" si="2"/>
         <v>3.5000000000000005E-3</v>
       </c>
       <c r="P29">
-        <f>B29*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-3.1101000000000002E-3</v>
       </c>
       <c r="Q29">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3285</v>
       </c>
       <c r="U29">
         <v>-3.1101000000000002E-3</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3173,37 +3998,37 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>$N$1*A30</f>
+        <f t="shared" si="0"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="L30">
-        <f>B30*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-2.6250000000000002E-3</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="O30">
-        <f>$N$2*A30</f>
+        <f t="shared" si="2"/>
         <v>5.2500000000000003E-3</v>
       </c>
       <c r="P30">
-        <f>B30*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-3.6750000000000003E-3</v>
       </c>
       <c r="Q30">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3302499999999999</v>
       </c>
       <c r="U30">
         <v>-3.6750000000000003E-3</v>
       </c>
       <c r="V30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3218,37 +4043,37 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>$N$1*A31</f>
+        <f t="shared" si="0"/>
         <v>5.000000000000001E-3</v>
       </c>
       <c r="L31">
-        <f>B31*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-2.9265000000000003E-3</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="O31">
-        <f>$N$2*A31</f>
+        <f t="shared" si="2"/>
         <v>7.000000000000001E-3</v>
       </c>
       <c r="P31">
-        <f>B31*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-4.0971000000000002E-3</v>
       </c>
       <c r="Q31">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3319999999999999</v>
       </c>
       <c r="U31">
         <v>-4.0971000000000002E-3</v>
       </c>
       <c r="V31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3263,37 +4088,37 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f>$N$1*A32</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L32">
-        <f>B32*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.3410000000000002E-3</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="O32">
-        <f>$N$2*A32</f>
+        <f t="shared" si="2"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="P32">
-        <f>B32*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-4.6774000000000008E-3</v>
       </c>
       <c r="Q32">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3354999999999999</v>
       </c>
       <c r="U32">
         <v>-4.6774000000000008E-3</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3308,37 +4133,37 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <f>$N$1*A33</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="L33">
-        <f>B33*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.5860000000000006E-3</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="O33">
-        <f>$N$2*A33</f>
+        <f t="shared" si="2"/>
         <v>1.4000000000000002E-2</v>
       </c>
       <c r="P33">
-        <f>B33*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-5.0204000000000013E-3</v>
       </c>
       <c r="Q33">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.339</v>
       </c>
       <c r="U33">
         <v>-5.0204000000000013E-3</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3353,37 +4178,37 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f>$N$1*A34</f>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L34">
-        <f>B34*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.7135000000000002E-3</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="O34">
-        <f>$N$2*A34</f>
+        <f t="shared" si="2"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="P34">
-        <f>B34*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-5.1989000000000011E-3</v>
       </c>
       <c r="Q34">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3425</v>
       </c>
       <c r="U34">
         <v>-5.1989000000000011E-3</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3398,37 +4223,37 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <f>$N$1*A35</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L35">
-        <f>B35*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.7510000000000004E-3</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="O35">
-        <f>$N$2*A35</f>
+        <f t="shared" si="2"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="P35">
-        <f>B35*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-5.2514000000000007E-3</v>
       </c>
       <c r="Q35">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3459999999999999</v>
       </c>
       <c r="U35">
         <v>-5.2514000000000007E-3</v>
       </c>
       <c r="V35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3443,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f>$N$1*A36</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="L36">
-        <f>B36*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.627E-3</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="O36">
-        <f>$N$2*A36</f>
+        <f t="shared" si="2"/>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="P36">
-        <f>B36*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-5.0778000000000004E-3</v>
       </c>
       <c r="Q36">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.353</v>
       </c>
       <c r="U36">
         <v>-5.0778000000000004E-3</v>
       </c>
       <c r="V36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3488,37 +4313,37 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f>$N$1*A37</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L37">
-        <f>B37*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-3.3085000000000007E-3</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="O37">
-        <f>$N$2*A37</f>
+        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P37">
-        <f>B37*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-4.6319000000000013E-3</v>
       </c>
       <c r="Q37">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3599999999999999</v>
       </c>
       <c r="U37">
         <v>-4.6319000000000013E-3</v>
       </c>
       <c r="V37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3533,37 +4358,37 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f>$N$1*A38</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="L38">
-        <f>B38*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-2.8520000000000004E-3</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="O38">
-        <f>$N$2*A38</f>
+        <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="P38">
-        <f>B38*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-3.9928000000000003E-3</v>
       </c>
       <c r="Q38">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.367</v>
       </c>
       <c r="U38">
         <v>-3.9928000000000003E-3</v>
       </c>
       <c r="V38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3578,37 +4403,37 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f>$N$1*A39</f>
+        <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="L39">
-        <f>B39*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-2.2899999999999999E-3</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="O39">
-        <f>$N$2*A39</f>
+        <f t="shared" si="2"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="P39">
-        <f>B39*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-3.2060000000000005E-3</v>
       </c>
       <c r="Q39">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3739999999999999</v>
       </c>
       <c r="U39">
         <v>-3.2060000000000005E-3</v>
       </c>
       <c r="V39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3623,37 +4448,37 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f>$N$1*A40</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="L40">
-        <f>B40*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-1.6395000000000001E-3</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="O40">
-        <f>$N$2*A40</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="P40">
-        <f>B40*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-2.2953000000000001E-3</v>
       </c>
       <c r="Q40">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.381</v>
       </c>
       <c r="U40">
         <v>-2.2953000000000001E-3</v>
       </c>
       <c r="V40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3668,37 +4493,37 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f>$N$1*A41</f>
+        <f t="shared" si="0"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="L41">
-        <f>B41*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-9.050000000000001E-4</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="O41">
-        <f>$N$2*A41</f>
+        <f t="shared" si="2"/>
         <v>6.3000000000000014E-2</v>
       </c>
       <c r="P41">
-        <f>B41*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-1.2670000000000003E-3</v>
       </c>
       <c r="Q41">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3879999999999999</v>
       </c>
       <c r="U41">
         <v>-1.2670000000000003E-3</v>
       </c>
       <c r="V41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3713,37 +4538,37 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f>$N$1*A42</f>
+        <f t="shared" si="0"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="L42">
-        <f>B42*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-5.04E-4</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="O42">
-        <f>$N$2*A42</f>
+        <f t="shared" si="2"/>
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="P42">
-        <f>B42*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-7.0560000000000013E-4</v>
       </c>
       <c r="Q42">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.3915</v>
       </c>
       <c r="U42">
         <v>-7.0560000000000013E-4</v>
       </c>
       <c r="V42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
@@ -3758,37 +4583,37 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f>$N$1*A43</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="L43">
-        <f>B43*$N$1</f>
+        <f t="shared" si="1"/>
         <v>-7.9000000000000009E-5</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="O43">
-        <f>$N$2*A43</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P43">
-        <f>B43*$N$2</f>
+        <f t="shared" si="3"/>
         <v>-1.1060000000000002E-4</v>
       </c>
       <c r="Q43">
-        <f>$N$3</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.395</v>
       </c>
       <c r="U43">
         <v>-1.1060000000000002E-4</v>
       </c>
       <c r="V43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
